--- a/medicine/Pharmacie/Sélinexor/Sélinexor.xlsx
+++ b/medicine/Pharmacie/Sélinexor/Sélinexor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9linexor</t>
+          <t>Sélinexor</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le sélinexor est un inhibiteur sélectif du transport nucléo-cytoplasmique qui se lie et inhibe l'exportine 1 ou XPO1, une protéine d’export nucléaire, ce qui amène à la mort cellulaire programmée des seules cellules cancéreuses[3].
+Le sélinexor est un inhibiteur sélectif du transport nucléo-cytoplasmique qui se lie et inhibe l'exportine 1 ou XPO1, une protéine d’export nucléaire, ce qui amène à la mort cellulaire programmée des seules cellules cancéreuses.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9linexor</t>
+          <t>Sélinexor</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Basée sur une étude[4], la Food and Drug Administration a autorisé le sélinexor (nom commercial Xpovio) en association avec la dexaméthasone pour le traitement de myélome multiple en rechute ou réfractaires après au moins 4 lignes de traitement et dont la maladie est réfractaire à au moins deux inhibiteurs de protéasome (IP), deux agents immunomodulateurs (IMID) et un anticorps monoclonal anti-CD38[5]. Il induit une lyse des cellules du myélome et diminue le processus d'ostéolyse[6].
-En juin 2020, le sélinexor est aussi indiqué pour le traitement du lymphome diffus à grandes cellules B, de haut grade, en rechute ou réfractaire, après au moins 2 lignes de traitement incluant des anthracyclines et un anti-CD20 (rituximab) et chez les patients inéligibles à la chimiothérapie intensive et à la greffe[7].
-Il a une action synergique avec les médicaments inhibiteurs du protéasome[8]. Ainsi l'association sélinixor-bortézomib-dexaméthasone se révèle être supérieure à la simple association bortézomib-dexaméthasone dans les myélomes réfractaires[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Basée sur une étude, la Food and Drug Administration a autorisé le sélinexor (nom commercial Xpovio) en association avec la dexaméthasone pour le traitement de myélome multiple en rechute ou réfractaires après au moins 4 lignes de traitement et dont la maladie est réfractaire à au moins deux inhibiteurs de protéasome (IP), deux agents immunomodulateurs (IMID) et un anticorps monoclonal anti-CD38. Il induit une lyse des cellules du myélome et diminue le processus d'ostéolyse.
+En juin 2020, le sélinexor est aussi indiqué pour le traitement du lymphome diffus à grandes cellules B, de haut grade, en rechute ou réfractaire, après au moins 2 lignes de traitement incluant des anthracyclines et un anti-CD20 (rituximab) et chez les patients inéligibles à la chimiothérapie intensive et à la greffe.
+Il a une action synergique avec les médicaments inhibiteurs du protéasome. Ainsi l'association sélinixor-bortézomib-dexaméthasone se révèle être supérieure à la simple association bortézomib-dexaméthasone dans les myélomes réfractaires.
 </t>
         </is>
       </c>
